--- a/VSG/Kriging/usingPykrige/VirtualSamples.xlsx
+++ b/VSG/Kriging/usingPykrige/VirtualSamples.xlsx
@@ -7,7 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="PyKrige" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Spherical" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Gaussian" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Exponential" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Linear" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Power" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="HoleEffect" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1509,4 +1514,5464 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>x1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>f(x1,x2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.0342</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.298810902484608</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.0342</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.366035152855036</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.0342</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.493288909113194</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.0342</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.21207235330098</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.288011996434276</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.342766480901367</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.421046714011923</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.563626356433465</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.305198518945996</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.363996930969411</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.429913065645121</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.589480464266318</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.22311344811485</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.431633363463418</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.360197884353738</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.389053424531114</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.550595734768065</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.19683601552803</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.38566412311507</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.282885617820445</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.32589454635417</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.370053845548687</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C24" t="n">
+        <v>3.073357151648342</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.193603289579405</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.041620615809694</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.179445941332427</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.199460087550118</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.405289268309186</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.48088657585051</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.4768</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.768064863180071</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.4768</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.8597099624196054</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.4768</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9579083288042224</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.4768</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.238516767438857</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.55415</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.64130525129164</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.55415</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.447886209548916</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.55415</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.990019841146794</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.514004611758136</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.294929611570563</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.5452040672505841</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.9479147952289673</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.913772721418105</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.9467149125943277</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.440940806655198</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.6938071147242062</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.196063946410663</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.923396813112377</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.169210627750287</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.7583</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.673954045275772</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.7583</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.521105458937497</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.7583</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.664041476129899</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2.202285172136222</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.161732137100949</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.92755418022424</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.024420435040513</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.139863447197754</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.599592679497061</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.340181633189077</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.17580485686356</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.361052625591293</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.25616828399185</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.317710815116316</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.42230693855944</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.790810132621484</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.9101690343899919</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.64746480702742</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.693757635502804</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.326966724326177</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.433700452913596</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.559300862497773</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.6915521887510525</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2.317032127433044</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.115001320347835</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.5041850928196629</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.640017315752186</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.326700844507944</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.402376079800264</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.519122494847234</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.211817650768535</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.8046141937998246</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.823273892526938</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2.208704609516162</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.700230657833274</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.866141189997096</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.472587013534257</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.054468610841133</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C87" t="n">
+        <v>3.04425575184806</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.587946632872864</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.931901615414392</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.448115224891612</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.542410300337338</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.115067705014516</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.345474441513119</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.545441897446751</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C95" t="n">
+        <v>0.9134715048837598</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.993031000689568</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.284132983433564</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>x1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>f(x1,x2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.0342</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.277515883365806</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.0342</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.371669830746444</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.0342</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.558299263825177</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.0342</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.303953552840467</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.226769024155017</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.279898278521345</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.374320231106525</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.582023060141134</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.193770032901847</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.235585939780919</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.312220311372899</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.540635046195256</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.179146017796596</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.432546823516067</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.180414645402339</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.225882020853255</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.458391768161389</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.042790294096154</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.433945378587548</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.081937322157934</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.08304201298307</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.262643686164969</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.708566554723917</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.303235037756297</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.815844157775009</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.304821676049891</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.296568287615263</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.109550033971316</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.550387220376465</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.4768</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.640249304173302</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.4768</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.118963172448793</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.4768</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.08656732115517</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.4768</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.33529893593106</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.55415</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.630896490618862</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.55415</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.4993828022844</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.55415</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.997763750510551</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.582872495025849</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.427664429621033</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.7170461362940775</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.273782190736424</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.950642399208819</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.200317253297736</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.561414853529945</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.8714298422633112</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.475496780399686</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.975859796679882</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.507841454575553</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.7583</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.732965470323588</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.7583</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.59906498764261</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.7583</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.761341033873194</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2.072073281612318</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.047861279434134</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.880216713257929</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.985791473272704</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.059886892202442</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.371053447798584</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.142122041807521</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.105472406417528</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.263004238513792</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.140554786580357</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.325109801129554</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.411302650460297</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.622855152065776</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.128256559656317</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.691813317580953</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.486069720627738</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.341202359891022</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.403986455050301</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.508752615861931</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.9207188253988839</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2.376071800143028</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.26307769625939</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.867640868616549</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.709121633790468</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.162034204574064</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.490149632614141</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.532980456392392</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.32413481987246</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.165361986433004</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.849391990139384</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2.136179627731775</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.697354578665047</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.866803646702401</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.597089568884952</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.04278897085999</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.768364110463516</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.346569740898373</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.060364329568921</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.344173209521377</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.384663772922408</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.290282351202653</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.388749672438981</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.617084020466968</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.089627633645019</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.987354630502182</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.171007446748377</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>x1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>f(x1,x2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.0342</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.063080000028269</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.0342</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.063080000052325</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.0342</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.063080000080168</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.0342</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.063080000100712</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.063080000012442</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.063080000017607</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.063080000040877</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.063080000070135</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.063080000000239</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.063080000004635</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.063080000026239</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.063080000056159</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.063080000092306</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.063080000084855</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.063079999994331</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.063080000013992</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.063080000043641</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.063080000078803</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.063080000076955</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.063079999975868</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.063079999978309</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.063080000022046</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.063080000054916</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.063080000062401</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>2.063079999929748</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C27" t="n">
+        <v>2.063079999926861</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C28" t="n">
+        <v>2.063079999946414</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.063079999982483</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C30" t="n">
+        <v>2.063080000005029</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.4768</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C31" t="n">
+        <v>2.063079999915783</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.4768</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C32" t="n">
+        <v>2.063079999911805</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.4768</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C33" t="n">
+        <v>2.063079999928875</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.4768</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C34" t="n">
+        <v>2.063079999989161</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.55415</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>2.063079999903759</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.55415</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C36" t="n">
+        <v>2.063079999900559</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.55415</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2.063079999945355</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>2.063079999897072</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C39" t="n">
+        <v>2.063079999893382</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C40" t="n">
+        <v>2.063079999885325</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C41" t="n">
+        <v>2.063079999907423</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C42" t="n">
+        <v>2.063079999937094</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2.063079999964025</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>2.063079999890348</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C45" t="n">
+        <v>2.063079999880781</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C46" t="n">
+        <v>2.063079999902955</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C47" t="n">
+        <v>2.06307999992909</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C48" t="n">
+        <v>2.063079999958686</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.7583</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>2.063079999887332</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.7583</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C50" t="n">
+        <v>2.063079999884115</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.7583</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2.063079999901022</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2.063079999890157</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.063079999888769</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C54" t="n">
+        <v>2.063079999889243</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.063079999901961</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.063079999948689</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.063079999894067</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.063079999893948</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.063079999903342</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.063079999917766</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.063079999945028</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.063080000044888</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.063080000027949</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C64" t="n">
+        <v>2.063079999931639</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C65" t="n">
+        <v>2.063079999889782</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C66" t="n">
+        <v>2.06307999988373</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.063079999895627</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.063080000051388</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.063080000033787</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="C70" t="n">
+        <v>2.063079999931323</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="C71" t="n">
+        <v>2.063079999887709</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2.063080000065641</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C73" t="n">
+        <v>2.063079999936492</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C74" t="n">
+        <v>2.063079999892258</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C75" t="n">
+        <v>2.063079999889611</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.063079999897362</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.063080000081801</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.063080000065619</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C79" t="n">
+        <v>2.063079999949826</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C80" t="n">
+        <v>2.063079999905785</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C81" t="n">
+        <v>2.063079999899169</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2.063079999902684</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.063080000098975</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.06308000008734</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2.063079999923912</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.063079999911287</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.063080000116857</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.063080000011904</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.063079999959249</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.063079999936245</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.063079999928608</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.063080000105276</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.063080000094506</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.063080000011123</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C95" t="n">
+        <v>2.063079999964484</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.06307999995004</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.063079999942414</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>x1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>f(x1,x2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.0342</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.168316751385647</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.0342</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.231218892108027</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.0342</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.331303836779054</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.0342</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.263693225016762</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.125407104559222</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.148878071649825</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.209462469045532</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.320258907497845</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.093716411902944</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.110475906276194</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.164693177566308</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.283953605587226</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C14" t="n">
+        <v>2.590900385680156</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.252040820858958</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.076286351254156</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.119098584314079</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.238704729602485</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2.498325464585417</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.235302901162535</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.020870748401141</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.022172261578191</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.146670982452678</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.323157498069699</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.178256717117799</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.882433021297132</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.728066110687417</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.76623598629156</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.022798113444495</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.906429856648095</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.4768</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.821363025790216</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.4768</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.686864682376389</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.4768</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.69408121578013</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.4768</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.837196834730418</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.55415</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.813598714676333</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.55415</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.777541220612636</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.55415</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.934992130683477</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.799071017535967</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.757571266487441</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.543291087659852</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.731376368719614</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.918726527297347</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.788424400530165</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.792335825073571</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.597703690826837</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.780434675160807</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.924760940105428</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.865225879636704</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.7583</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.836188234613136</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.7583</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.798360580710857</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.7583</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.853971956008259</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.922744469473237</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.912675672292989</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.875320916013972</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.919283924140429</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1.988339526600633</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.003409654861735</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1.94968803209374</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.96124793241348</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.018880698235714</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.011788326022626</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.209671245553203</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.212143198452498</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.822751666251984</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.680578946861308</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.821369444731039</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.035876305986275</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.223225702022947</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.209317725648107</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.777928222169255</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.622964872480193</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2.25726854358761</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.742247610241624</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C74" t="n">
+        <v>1.617568704101675</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.833300438119988</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.968075912083421</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.316096756585077</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.298672939687136</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.777556603416817</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.703979140468893</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.877541717866345</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C82" t="n">
+        <v>1.973611752425336</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.398256501598474</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.435818115917625</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.817779828171676</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.9397920130971</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.433023795832745</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.138754074626611</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.984591535836252</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.04342183156868</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.062614218547321</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.27221901013668</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.269552483764617</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.934244146517158</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.753344862142884</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.970196764046868</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.021565874848115</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C97"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>x1</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>x2</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>f(x1,x2)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>0.0342</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.274008611817096</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>0.0342</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.365431070479977</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>0.0342</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.563267257206667</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>0.0342</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.295504130889652</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.237689224447388</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.289531681947075</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.380636590897113</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.600594677457076</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.215007343461011</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.254891544792339</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C12" t="n">
+        <v>2.325771930437873</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2.565383598345694</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C14" t="n">
+        <v>3.185197432983775</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>0.1428</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C15" t="n">
+        <v>2.441035327872059</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C16" t="n">
+        <v>2.204060683724766</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C17" t="n">
+        <v>2.240992528513241</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C18" t="n">
+        <v>2.483517828618376</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B19" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C19" t="n">
+        <v>3.060716817656279</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>0.18225</v>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2.442792690127698</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>2.111233542159078</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B22" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2.108440140915205</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B23" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C23" t="n">
+        <v>2.282648333125084</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B24" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C24" t="n">
+        <v>2.747814981428186</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>0.24025</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C25" t="n">
+        <v>2.308661542111601</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.82901761146955</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B27" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.283124678083811</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B28" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.285144798856328</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B29" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C29" t="n">
+        <v>2.126901089289239</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>0.4228</v>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.531474193835769</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>0.4768</v>
+      </c>
+      <c r="B31" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.629662159223081</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>0.4768</v>
+      </c>
+      <c r="B32" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.073552250741911</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>0.4768</v>
+      </c>
+      <c r="B33" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.069882250502086</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>0.4768</v>
+      </c>
+      <c r="B34" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.312438300812631</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>0.55415</v>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1.627276768499476</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>0.55415</v>
+      </c>
+      <c r="B36" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.478043434305892</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>0.55415</v>
+      </c>
+      <c r="B37" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C37" t="n">
+        <v>2.001645615278848</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>1.579006437547493</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.406359886586172</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.6892829284099771</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.238927522030381</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.957928472173641</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>0.5999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.172958318592388</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1.56511981043306</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B45" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.8485256332025808</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B46" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1.449760015367086</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B47" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.988511952456272</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>0.66415</v>
+      </c>
+      <c r="B48" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.477453778319691</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>0.7583</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.759826463475274</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>0.7583</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.613987657418809</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>0.7583</v>
+      </c>
+      <c r="B51" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C51" t="n">
+        <v>1.768053069970853</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+      <c r="C52" t="n">
+        <v>2.123737632376996</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B53" t="n">
+        <v>0.04293</v>
+      </c>
+      <c r="C53" t="n">
+        <v>2.088355354164629</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1.911964257639078</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B55" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C55" t="n">
+        <v>2.03189644647972</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>0.85185</v>
+      </c>
+      <c r="B56" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C56" t="n">
+        <v>2.089364453962446</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+      <c r="C57" t="n">
+        <v>2.429756522567438</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B58" t="n">
+        <v>0.221875</v>
+      </c>
+      <c r="C58" t="n">
+        <v>2.20612686083718</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B59" t="n">
+        <v>0.3782</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2.179785983783646</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B60" t="n">
+        <v>0.52275</v>
+      </c>
+      <c r="C60" t="n">
+        <v>2.33395841571299</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>0.93315</v>
+      </c>
+      <c r="B61" t="n">
+        <v>0.9136874999999999</v>
+      </c>
+      <c r="C61" t="n">
+        <v>2.190204036463866</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>0</v>
+      </c>
+      <c r="B62" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C62" t="n">
+        <v>2.308803520265387</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C63" t="n">
+        <v>2.413348296498442</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C64" t="n">
+        <v>1.612546242210389</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B65" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C65" t="n">
+        <v>1.083964565712836</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B66" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.704889745544242</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B67" t="n">
+        <v>0.1241</v>
+      </c>
+      <c r="C67" t="n">
+        <v>2.5316236854344</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>0</v>
+      </c>
+      <c r="B68" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="C68" t="n">
+        <v>2.323854562245857</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B69" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="C69" t="n">
+        <v>2.406796259380387</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B70" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1.497732445761472</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B71" t="n">
+        <v>0.1727</v>
+      </c>
+      <c r="C71" t="n">
+        <v>0.8770780149541734</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>0</v>
+      </c>
+      <c r="B72" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2.360114798375959</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B73" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C73" t="n">
+        <v>1.24466659514233</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B74" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.819251664852176</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B75" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1.721238179738977</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B76" t="n">
+        <v>0.26915</v>
+      </c>
+      <c r="C76" t="n">
+        <v>2.241846046148877</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>0</v>
+      </c>
+      <c r="B77" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2.480858952248186</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B78" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C78" t="n">
+        <v>2.550773974819785</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B79" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.312968506260877</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B80" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C80" t="n">
+        <v>1.12498632677609</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B81" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1.873185790057783</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B82" t="n">
+        <v>0.3611</v>
+      </c>
+      <c r="C82" t="n">
+        <v>2.219411204433977</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>0</v>
+      </c>
+      <c r="B83" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C83" t="n">
+        <v>2.69585445994429</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B84" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2.885512188013911</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B85" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C85" t="n">
+        <v>1.587166959977038</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B86" t="n">
+        <v>0.452</v>
+      </c>
+      <c r="C86" t="n">
+        <v>2.074396273713131</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>0</v>
+      </c>
+      <c r="B87" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2.76420380758339</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B88" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.369352086649524</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B89" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.069925422198373</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B90" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2.367572190655094</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B91" t="n">
+        <v>0.6507000000000001</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2.451704021114478</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>0</v>
+      </c>
+      <c r="B92" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C92" t="n">
+        <v>2.264835011027967</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>0.09088</v>
+      </c>
+      <c r="B93" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C93" t="n">
+        <v>2.39157802141249</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>0.404075</v>
+      </c>
+      <c r="B94" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C94" t="n">
+        <v>1.60219711377579</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>0.58605</v>
+      </c>
+      <c r="B95" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.069929325723325</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>0.804225</v>
+      </c>
+      <c r="B96" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C96" t="n">
+        <v>2.002099575090857</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>0.97356</v>
+      </c>
+      <c r="B97" t="n">
+        <v>0.8969499999999999</v>
+      </c>
+      <c r="C97" t="n">
+        <v>2.2281943040447</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>